--- a/LubanTools/DesignerConfigs/Datas/TouristGroup_游客团任务表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/TouristGroup_游客团任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1253,8 +1253,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="1">
-        <f>E5*20+F5*2</f>
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="I5" s="1">
         <v>50</v>
@@ -1280,8 +1279,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:H15" si="0">E6*20+F6*2</f>
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="I6" s="1">
         <v>50</v>
@@ -1307,8 +1305,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="I7" s="1">
         <v>50</v>
@@ -1334,8 +1331,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="I8" s="1">
         <v>250</v>
@@ -1361,8 +1357,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="I9" s="1">
         <v>250</v>
@@ -1388,8 +1383,7 @@
         <v>36</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="I10" s="1">
         <v>450</v>
@@ -1415,8 +1409,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="I11" s="1">
         <v>450</v>
@@ -1442,8 +1435,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="I12" s="1">
         <v>650</v>
@@ -1469,8 +1461,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="I13" s="1">
         <v>650</v>
@@ -1496,8 +1487,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="I14" s="1">
         <v>850</v>
@@ -1523,8 +1513,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="I15" s="1">
         <v>850</v>
